--- a/data/elections/not_imputed/Congressional Elections (2014).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2014).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A1B3D-DB99-B84D-B169-51A5864E85BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE6C05-4FFC-AE4B-8D27-0E65F54681AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="6280" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,22 +397,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -462,23 +446,21 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -765,10 +747,10 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A51"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,18 +758,18 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -796,19 +778,19 @@
       <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -831,17 +813,17 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>704533</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>331764</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <f>G2-E2-D2</f>
         <v>44583</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
         <v>1080880</v>
       </c>
       <c r="H2" s="7">
@@ -867,17 +849,17 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>142572</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>114602</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <f>G3-E3-D3</f>
         <v>22567</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>279741</v>
       </c>
       <c r="H3" s="7">
@@ -903,17 +885,17 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>817168</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>577943</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F51" si="0">G4-E4-D4</f>
         <v>72492</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>1467603</v>
       </c>
       <c r="H4" s="7">
@@ -939,17 +921,17 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>509631</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>254774</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>66247</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
         <v>830652</v>
       </c>
       <c r="H5" s="7">
@@ -975,17 +957,17 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>2950679</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>4067737</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>114005</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
         <v>7132421</v>
       </c>
       <c r="H6" s="7">
@@ -1011,17 +993,17 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>1000197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>936417</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>63911</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
         <v>2000525</v>
       </c>
       <c r="H7" s="7">
@@ -1047,17 +1029,17 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>409513</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <v>596390</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>61954</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
         <v>1067857</v>
       </c>
       <c r="H8" s="7">
@@ -1083,17 +1065,17 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>85146</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>137251</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>9220</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="9">
         <v>231617</v>
       </c>
       <c r="H9" s="7">
@@ -1119,17 +1101,17 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>2713451</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>2130626</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>154478</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="9">
         <v>4998555</v>
       </c>
       <c r="H10" s="7">
@@ -1155,17 +1137,17 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>1349076</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>956361</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="9">
         <v>2305665</v>
       </c>
       <c r="H11" s="7">
@@ -1191,17 +1173,17 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>120084</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="9">
         <v>235400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>14219</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <v>369703</v>
       </c>
       <c r="H12" s="7">
@@ -1227,17 +1209,17 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>275072</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>160078</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="9">
         <v>435157</v>
       </c>
       <c r="H13" s="7">
@@ -1263,17 +1245,17 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>1721865</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>1822779</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>23358</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="9">
         <v>3568002</v>
       </c>
       <c r="H14" s="7">
@@ -1299,17 +1281,17 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>788762</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>502104</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>50948</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="9">
         <v>1341814</v>
       </c>
       <c r="H15" s="7">
@@ -1335,17 +1317,17 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>595865</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="9">
         <v>509189</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>15280</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="9">
         <v>1120334</v>
       </c>
       <c r="H16" s="7">
@@ -1371,17 +1353,17 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>540756</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>311530</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>9791</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>862077</v>
       </c>
       <c r="H17" s="7">
@@ -1407,17 +1389,17 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>887157</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>508151</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>2318</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="9">
         <v>1397626</v>
       </c>
       <c r="H18" s="7">
@@ -1443,17 +1425,17 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>1031270</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>406186</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>131266</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="9">
         <v>1568722</v>
       </c>
       <c r="H19" s="7">
@@ -1479,17 +1461,17 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>228071</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>305242</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>83683</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="9">
         <v>616996</v>
       </c>
       <c r="H20" s="7">
@@ -1515,17 +1497,17 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>704400</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <v>978267</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>20370</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="9">
         <v>1703037</v>
       </c>
       <c r="H21" s="7">
@@ -1551,17 +1533,17 @@
       <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>308598</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="9">
         <v>1475442</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>402749</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="9">
         <v>2186789</v>
       </c>
       <c r="H22" s="7">
@@ -1587,17 +1569,17 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>1466749</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="9">
         <v>1519030</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>103698</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="9">
         <v>3089477</v>
       </c>
       <c r="H23" s="7">
@@ -1623,17 +1605,17 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>913539</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="9">
         <v>985760</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>64240</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="9">
         <v>1963539</v>
       </c>
       <c r="H24" s="7">
@@ -1659,17 +1641,17 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>329169</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="9">
         <v>230014</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>67096</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="9">
         <v>626279</v>
       </c>
       <c r="H25" s="7">
@@ -1695,17 +1677,17 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>838283</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="9">
         <v>513600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>74420</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="9">
         <v>1426303</v>
       </c>
       <c r="H26" s="7">
@@ -1731,17 +1713,17 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <v>203871</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="9">
         <v>148690</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>15402</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="9">
         <v>367963</v>
       </c>
       <c r="H27" s="7">
@@ -1767,17 +1749,17 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="8">
         <v>340816</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="9">
         <v>185234</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>9480</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="9">
         <v>535530</v>
       </c>
       <c r="H28" s="7">
@@ -1803,17 +1785,17 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <v>304809</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="9">
         <v>210147</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="9">
         <f t="shared" si="0"/>
         <v>28053</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="9">
         <v>543009</v>
       </c>
       <c r="H29" s="7">
@@ -1839,17 +1821,17 @@
       <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="8">
         <v>232379</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="9">
         <v>247469</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="9">
         <f t="shared" si="0"/>
         <v>1072</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="9">
         <v>480920</v>
       </c>
       <c r="H30" s="7">
@@ -1875,17 +1857,17 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="8">
         <v>877265</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="9">
         <v>914172</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>29928</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="9">
         <v>1821365</v>
       </c>
       <c r="H31" s="7">
@@ -1911,17 +1893,17 @@
       <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="8">
         <v>240542</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="9">
         <v>271222</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="9">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="9">
         <v>511885</v>
       </c>
       <c r="H32" s="7">
@@ -1947,18 +1929,18 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <f>1180753+76659</f>
         <v>1257412</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="9">
         <v>1788105</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>889188</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="9">
         <v>3934705</v>
       </c>
       <c r="H33" s="7">
@@ -1984,17 +1966,17 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="8">
         <v>1555364</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="9">
         <v>1234027</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="9">
         <f t="shared" si="0"/>
         <v>18607</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="9">
         <v>2807998</v>
       </c>
       <c r="H34" s="7">
@@ -2020,17 +2002,17 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="8">
         <v>138100</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="9">
         <v>95678</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="9">
         <f t="shared" si="0"/>
         <v>14892</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="9">
         <v>248670</v>
       </c>
       <c r="H35" s="7">
@@ -2056,17 +2038,17 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="8">
         <v>1770923</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="9">
         <v>1179587</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="9">
         <f t="shared" si="0"/>
         <v>49651</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="9">
         <v>3000161</v>
       </c>
       <c r="H36" s="7">
@@ -2092,17 +2074,17 @@
       <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="8">
         <v>457613</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="9">
         <v>174022</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="9">
         <f t="shared" si="0"/>
         <v>21778</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="9">
         <v>653413</v>
       </c>
       <c r="H37" s="7">
@@ -2128,17 +2110,17 @@
       <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="8">
         <v>582909</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="9">
         <v>778139</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="9">
         <f t="shared" si="0"/>
         <v>89654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="9">
         <v>1450702</v>
       </c>
       <c r="H38" s="7">
@@ -2164,17 +2146,17 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="8">
         <v>1833205</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="9">
         <v>1467594</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="9">
         <f t="shared" si="0"/>
         <v>22734</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="9">
         <v>3323533</v>
       </c>
       <c r="H39" s="7">
@@ -2200,17 +2182,17 @@
       <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <v>122721</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="9">
         <v>192776</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="9">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="9">
         <v>316257</v>
       </c>
       <c r="H40" s="7">
@@ -2236,17 +2218,17 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="8">
         <v>734456</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="9">
         <v>377025</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="9">
         <f t="shared" si="0"/>
         <v>44301</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="9">
         <v>1155782</v>
       </c>
       <c r="H41" s="7">
@@ -2272,17 +2254,17 @@
       <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="8">
         <v>183834</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="9">
         <v>92485</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
         <v>276319</v>
       </c>
       <c r="H42" s="7">
@@ -2308,17 +2290,17 @@
       <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="8">
         <v>848846</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="9">
         <v>448421</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="9">
         <f t="shared" si="0"/>
         <v>73894</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="9">
         <v>1371161</v>
       </c>
       <c r="H43" s="7">
@@ -2344,17 +2326,17 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="8">
         <v>2684592</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="9">
         <v>1474016</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="9">
         <f t="shared" si="0"/>
         <v>294891</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="9">
         <v>4453499</v>
       </c>
       <c r="H44" s="7">
@@ -2380,17 +2362,17 @@
       <c r="C45" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="8">
         <v>351034</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="9">
         <v>183491</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="9">
         <f t="shared" si="0"/>
         <v>31445</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="9">
         <v>565970</v>
       </c>
       <c r="H45" s="7">
@@ -2416,17 +2398,17 @@
       <c r="C46" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="8">
         <v>59432</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="9">
         <v>123349</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="9">
         <f t="shared" si="0"/>
         <v>8723</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="9">
         <v>191504</v>
       </c>
       <c r="H46" s="7">
@@ -2452,17 +2434,17 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="8">
         <v>1143747</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="9">
         <v>845939</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="9">
         <f t="shared" si="0"/>
         <v>145645</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="9">
         <v>2135331</v>
       </c>
       <c r="H47" s="7">
@@ -2488,17 +2470,17 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="8">
         <v>981853</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="9">
         <v>1047747</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="9">
         <f t="shared" ref="F48" si="1">G48-E48-D48</f>
         <v>0</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="9">
         <v>2029600</v>
       </c>
       <c r="H48" s="7">
@@ -2524,17 +2506,17 @@
       <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="8">
         <v>242823</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="9">
         <v>182484</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="9">
         <f t="shared" si="0"/>
         <v>14081</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="9">
         <v>439388</v>
       </c>
       <c r="H49" s="7">
@@ -2560,17 +2542,17 @@
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="8">
         <v>1233336</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="9">
         <v>1102581</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="9">
         <f t="shared" si="0"/>
         <v>19663</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="9">
         <v>2355580</v>
       </c>
       <c r="H50" s="7">
@@ -2596,17 +2578,17 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="8">
         <v>113038</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="9">
         <v>37803</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="9">
         <f t="shared" si="0"/>
         <v>20312</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="9">
         <v>171153</v>
       </c>
       <c r="H51" s="7">

--- a/data/elections/not_imputed/Congressional Elections (2014).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2014).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE6C05-4FFC-AE4B-8D27-0E65F54681AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD72BA-5768-CF4E-854B-5B37CCAA94C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="6280" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2014" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{3AACA6EF-0C9B-DB43-8155-E5475B3233DA}" name="Congressional Elections (2014)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2014).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>PA</t>
   </si>
@@ -374,13 +397,19 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +436,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,13 +480,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,12 +498,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -479,6 +519,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2014)" connectionId="1" xr16:uid="{705620DD-F110-7A40-8F66-A01B7C708092}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +864,6 @@
         <v>331764</v>
       </c>
       <c r="F2" s="9">
-        <f>G2-E2-D2</f>
         <v>44583</v>
       </c>
       <c r="G2" s="9">
@@ -856,7 +899,6 @@
         <v>114602</v>
       </c>
       <c r="F3" s="9">
-        <f>G3-E3-D3</f>
         <v>22567</v>
       </c>
       <c r="G3" s="9">
@@ -892,7 +934,6 @@
         <v>577943</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F51" si="0">G4-E4-D4</f>
         <v>72492</v>
       </c>
       <c r="G4" s="9">
@@ -928,7 +969,6 @@
         <v>254774</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
         <v>66247</v>
       </c>
       <c r="G5" s="9">
@@ -964,7 +1004,6 @@
         <v>4067737</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
         <v>114005</v>
       </c>
       <c r="G6" s="9">
@@ -1000,7 +1039,6 @@
         <v>936417</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
         <v>63911</v>
       </c>
       <c r="G7" s="9">
@@ -1036,7 +1074,6 @@
         <v>596390</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
         <v>61954</v>
       </c>
       <c r="G8" s="9">
@@ -1072,7 +1109,6 @@
         <v>137251</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="0"/>
         <v>9220</v>
       </c>
       <c r="G9" s="9">
@@ -1108,7 +1144,6 @@
         <v>2130626</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="0"/>
         <v>154478</v>
       </c>
       <c r="G10" s="9">
@@ -1144,7 +1179,6 @@
         <v>956361</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="G11" s="9">
@@ -1180,7 +1214,6 @@
         <v>235400</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="0"/>
         <v>14219</v>
       </c>
       <c r="G12" s="9">
@@ -1216,7 +1249,6 @@
         <v>160078</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G13" s="9">
@@ -1252,7 +1284,6 @@
         <v>1822779</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="0"/>
         <v>23358</v>
       </c>
       <c r="G14" s="9">
@@ -1288,7 +1319,6 @@
         <v>502104</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="0"/>
         <v>50948</v>
       </c>
       <c r="G15" s="9">
@@ -1324,7 +1354,6 @@
         <v>509189</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="0"/>
         <v>15280</v>
       </c>
       <c r="G16" s="9">
@@ -1360,7 +1389,6 @@
         <v>311530</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="0"/>
         <v>9791</v>
       </c>
       <c r="G17" s="9">
@@ -1396,7 +1424,6 @@
         <v>508151</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="0"/>
         <v>2318</v>
       </c>
       <c r="G18" s="9">
@@ -1432,7 +1459,6 @@
         <v>406186</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="0"/>
         <v>131266</v>
       </c>
       <c r="G19" s="9">
@@ -1468,7 +1494,6 @@
         <v>305242</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="0"/>
         <v>83683</v>
       </c>
       <c r="G20" s="9">
@@ -1504,7 +1529,6 @@
         <v>978267</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="0"/>
         <v>20370</v>
       </c>
       <c r="G21" s="9">
@@ -1540,7 +1564,6 @@
         <v>1475442</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="0"/>
         <v>402749</v>
       </c>
       <c r="G22" s="9">
@@ -1576,7 +1599,6 @@
         <v>1519030</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="0"/>
         <v>103698</v>
       </c>
       <c r="G23" s="9">
@@ -1612,7 +1634,6 @@
         <v>985760</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="0"/>
         <v>64240</v>
       </c>
       <c r="G24" s="9">
@@ -1648,7 +1669,6 @@
         <v>230014</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="0"/>
         <v>67096</v>
       </c>
       <c r="G25" s="9">
@@ -1684,7 +1704,6 @@
         <v>513600</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="0"/>
         <v>74420</v>
       </c>
       <c r="G26" s="9">
@@ -1720,7 +1739,6 @@
         <v>148690</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="0"/>
         <v>15402</v>
       </c>
       <c r="G27" s="9">
@@ -1756,7 +1774,6 @@
         <v>185234</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="0"/>
         <v>9480</v>
       </c>
       <c r="G28" s="9">
@@ -1792,7 +1809,6 @@
         <v>210147</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="0"/>
         <v>28053</v>
       </c>
       <c r="G29" s="9">
@@ -1828,7 +1844,6 @@
         <v>247469</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="0"/>
         <v>1072</v>
       </c>
       <c r="G30" s="9">
@@ -1864,7 +1879,6 @@
         <v>914172</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="0"/>
         <v>29928</v>
       </c>
       <c r="G31" s="9">
@@ -1900,7 +1914,6 @@
         <v>271222</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="G32" s="9">
@@ -1930,14 +1943,12 @@
         <v>69</v>
       </c>
       <c r="D33" s="8">
-        <f>1180753+76659</f>
         <v>1257412</v>
       </c>
       <c r="E33" s="9">
         <v>1788105</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="0"/>
         <v>889188</v>
       </c>
       <c r="G33" s="9">
@@ -1973,7 +1984,6 @@
         <v>1234027</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="0"/>
         <v>18607</v>
       </c>
       <c r="G34" s="9">
@@ -2009,7 +2019,6 @@
         <v>95678</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="0"/>
         <v>14892</v>
       </c>
       <c r="G35" s="9">
@@ -2045,7 +2054,6 @@
         <v>1179587</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="0"/>
         <v>49651</v>
       </c>
       <c r="G36" s="9">
@@ -2081,7 +2089,6 @@
         <v>174022</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="0"/>
         <v>21778</v>
       </c>
       <c r="G37" s="9">
@@ -2117,7 +2124,6 @@
         <v>778139</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="0"/>
         <v>89654</v>
       </c>
       <c r="G38" s="9">
@@ -2153,7 +2159,6 @@
         <v>1467594</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" si="0"/>
         <v>22734</v>
       </c>
       <c r="G39" s="9">
@@ -2189,7 +2194,6 @@
         <v>192776</v>
       </c>
       <c r="F40" s="9">
-        <f t="shared" si="0"/>
         <v>760</v>
       </c>
       <c r="G40" s="9">
@@ -2225,7 +2229,6 @@
         <v>377025</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="0"/>
         <v>44301</v>
       </c>
       <c r="G41" s="9">
@@ -2261,7 +2264,6 @@
         <v>92485</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="9">
@@ -2297,7 +2299,6 @@
         <v>448421</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="0"/>
         <v>73894</v>
       </c>
       <c r="G43" s="9">
@@ -2333,7 +2334,6 @@
         <v>1474016</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="0"/>
         <v>294891</v>
       </c>
       <c r="G44" s="9">
@@ -2369,7 +2369,6 @@
         <v>183491</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="0"/>
         <v>31445</v>
       </c>
       <c r="G45" s="9">
@@ -2405,7 +2404,6 @@
         <v>123349</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="0"/>
         <v>8723</v>
       </c>
       <c r="G46" s="9">
@@ -2441,7 +2439,6 @@
         <v>845939</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="0"/>
         <v>145645</v>
       </c>
       <c r="G47" s="9">
@@ -2477,7 +2474,6 @@
         <v>1047747</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" ref="F48" si="1">G48-E48-D48</f>
         <v>0</v>
       </c>
       <c r="G48" s="9">
@@ -2513,7 +2509,6 @@
         <v>182484</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="0"/>
         <v>14081</v>
       </c>
       <c r="G49" s="9">
@@ -2549,7 +2544,6 @@
         <v>1102581</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="0"/>
         <v>19663</v>
       </c>
       <c r="G50" s="9">
@@ -2585,7 +2579,6 @@
         <v>37803</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="0"/>
         <v>20312</v>
       </c>
       <c r="G51" s="9">
@@ -2602,6 +2595,15 @@
       </c>
       <c r="K51">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="11">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.46973461819682238</v>
       </c>
     </row>
   </sheetData>
@@ -2610,4 +2612,1662 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F9BD2-D7C7-B046-881D-FD2B48541414}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>704533</v>
+      </c>
+      <c r="D2">
+        <v>331764</v>
+      </c>
+      <c r="E2">
+        <v>44583</v>
+      </c>
+      <c r="F2">
+        <v>1080880</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>142572</v>
+      </c>
+      <c r="D3">
+        <v>114602</v>
+      </c>
+      <c r="E3">
+        <v>22567</v>
+      </c>
+      <c r="F3">
+        <v>279741</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>817168</v>
+      </c>
+      <c r="D4">
+        <v>577943</v>
+      </c>
+      <c r="E4">
+        <v>72492</v>
+      </c>
+      <c r="F4">
+        <v>1467603</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>509631</v>
+      </c>
+      <c r="D5">
+        <v>254774</v>
+      </c>
+      <c r="E5">
+        <v>66247</v>
+      </c>
+      <c r="F5">
+        <v>830652</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2950679</v>
+      </c>
+      <c r="D6">
+        <v>4067737</v>
+      </c>
+      <c r="E6">
+        <v>114005</v>
+      </c>
+      <c r="F6">
+        <v>7132421</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1000197</v>
+      </c>
+      <c r="D7">
+        <v>936417</v>
+      </c>
+      <c r="E7">
+        <v>63911</v>
+      </c>
+      <c r="F7">
+        <v>2000525</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>409513</v>
+      </c>
+      <c r="D8">
+        <v>596390</v>
+      </c>
+      <c r="E8">
+        <v>61954</v>
+      </c>
+      <c r="F8">
+        <v>1067857</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>85146</v>
+      </c>
+      <c r="D9">
+        <v>137251</v>
+      </c>
+      <c r="E9">
+        <v>9220</v>
+      </c>
+      <c r="F9">
+        <v>231617</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2713451</v>
+      </c>
+      <c r="D10">
+        <v>2130626</v>
+      </c>
+      <c r="E10">
+        <v>154478</v>
+      </c>
+      <c r="F10">
+        <v>4998555</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>1349076</v>
+      </c>
+      <c r="D11">
+        <v>956361</v>
+      </c>
+      <c r="E11">
+        <v>228</v>
+      </c>
+      <c r="F11">
+        <v>2305665</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>120084</v>
+      </c>
+      <c r="D12">
+        <v>235400</v>
+      </c>
+      <c r="E12">
+        <v>14219</v>
+      </c>
+      <c r="F12">
+        <v>369703</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>275072</v>
+      </c>
+      <c r="D13">
+        <v>160078</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>435157</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1721865</v>
+      </c>
+      <c r="D14">
+        <v>1822779</v>
+      </c>
+      <c r="E14">
+        <v>23358</v>
+      </c>
+      <c r="F14">
+        <v>3568002</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>788762</v>
+      </c>
+      <c r="D15">
+        <v>502104</v>
+      </c>
+      <c r="E15">
+        <v>50948</v>
+      </c>
+      <c r="F15">
+        <v>1341814</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>595865</v>
+      </c>
+      <c r="D16">
+        <v>509189</v>
+      </c>
+      <c r="E16">
+        <v>15280</v>
+      </c>
+      <c r="F16">
+        <v>1120334</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>540756</v>
+      </c>
+      <c r="D17">
+        <v>311530</v>
+      </c>
+      <c r="E17">
+        <v>9791</v>
+      </c>
+      <c r="F17">
+        <v>862077</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>887157</v>
+      </c>
+      <c r="D18">
+        <v>508151</v>
+      </c>
+      <c r="E18">
+        <v>2318</v>
+      </c>
+      <c r="F18">
+        <v>1397626</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>1031270</v>
+      </c>
+      <c r="D19">
+        <v>406186</v>
+      </c>
+      <c r="E19">
+        <v>131266</v>
+      </c>
+      <c r="F19">
+        <v>1568722</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>228071</v>
+      </c>
+      <c r="D20">
+        <v>305242</v>
+      </c>
+      <c r="E20">
+        <v>83683</v>
+      </c>
+      <c r="F20">
+        <v>616996</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>704400</v>
+      </c>
+      <c r="D21">
+        <v>978267</v>
+      </c>
+      <c r="E21">
+        <v>20370</v>
+      </c>
+      <c r="F21">
+        <v>1703037</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>308598</v>
+      </c>
+      <c r="D22">
+        <v>1475442</v>
+      </c>
+      <c r="E22">
+        <v>402749</v>
+      </c>
+      <c r="F22">
+        <v>2186789</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1466749</v>
+      </c>
+      <c r="D23">
+        <v>1519030</v>
+      </c>
+      <c r="E23">
+        <v>103698</v>
+      </c>
+      <c r="F23">
+        <v>3089477</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>913539</v>
+      </c>
+      <c r="D24">
+        <v>985760</v>
+      </c>
+      <c r="E24">
+        <v>64240</v>
+      </c>
+      <c r="F24">
+        <v>1963539</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>329169</v>
+      </c>
+      <c r="D25">
+        <v>230014</v>
+      </c>
+      <c r="E25">
+        <v>67096</v>
+      </c>
+      <c r="F25">
+        <v>626279</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>838283</v>
+      </c>
+      <c r="D26">
+        <v>513600</v>
+      </c>
+      <c r="E26">
+        <v>74420</v>
+      </c>
+      <c r="F26">
+        <v>1426303</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>203871</v>
+      </c>
+      <c r="D27">
+        <v>148690</v>
+      </c>
+      <c r="E27">
+        <v>15402</v>
+      </c>
+      <c r="F27">
+        <v>367963</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>340816</v>
+      </c>
+      <c r="D28">
+        <v>185234</v>
+      </c>
+      <c r="E28">
+        <v>9480</v>
+      </c>
+      <c r="F28">
+        <v>535530</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>304809</v>
+      </c>
+      <c r="D29">
+        <v>210147</v>
+      </c>
+      <c r="E29">
+        <v>28053</v>
+      </c>
+      <c r="F29">
+        <v>543009</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>232379</v>
+      </c>
+      <c r="D30">
+        <v>247469</v>
+      </c>
+      <c r="E30">
+        <v>1072</v>
+      </c>
+      <c r="F30">
+        <v>480920</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>877265</v>
+      </c>
+      <c r="D31">
+        <v>914172</v>
+      </c>
+      <c r="E31">
+        <v>29928</v>
+      </c>
+      <c r="F31">
+        <v>1821365</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>240542</v>
+      </c>
+      <c r="D32">
+        <v>271222</v>
+      </c>
+      <c r="E32">
+        <v>121</v>
+      </c>
+      <c r="F32">
+        <v>511885</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>1257412</v>
+      </c>
+      <c r="D33">
+        <v>1788105</v>
+      </c>
+      <c r="E33">
+        <v>889188</v>
+      </c>
+      <c r="F33">
+        <v>3934705</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1555364</v>
+      </c>
+      <c r="D34">
+        <v>1234027</v>
+      </c>
+      <c r="E34">
+        <v>18607</v>
+      </c>
+      <c r="F34">
+        <v>2807998</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>138100</v>
+      </c>
+      <c r="D35">
+        <v>95678</v>
+      </c>
+      <c r="E35">
+        <v>14892</v>
+      </c>
+      <c r="F35">
+        <v>248670</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1770923</v>
+      </c>
+      <c r="D36">
+        <v>1179587</v>
+      </c>
+      <c r="E36">
+        <v>49651</v>
+      </c>
+      <c r="F36">
+        <v>3000161</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>457613</v>
+      </c>
+      <c r="D37">
+        <v>174022</v>
+      </c>
+      <c r="E37">
+        <v>21778</v>
+      </c>
+      <c r="F37">
+        <v>653413</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>582909</v>
+      </c>
+      <c r="D38">
+        <v>778139</v>
+      </c>
+      <c r="E38">
+        <v>89654</v>
+      </c>
+      <c r="F38">
+        <v>1450702</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1833205</v>
+      </c>
+      <c r="D39">
+        <v>1467594</v>
+      </c>
+      <c r="E39">
+        <v>22734</v>
+      </c>
+      <c r="F39">
+        <v>3323533</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>122721</v>
+      </c>
+      <c r="D40">
+        <v>192776</v>
+      </c>
+      <c r="E40">
+        <v>760</v>
+      </c>
+      <c r="F40">
+        <v>316257</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>734456</v>
+      </c>
+      <c r="D41">
+        <v>377025</v>
+      </c>
+      <c r="E41">
+        <v>44301</v>
+      </c>
+      <c r="F41">
+        <v>1155782</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>183834</v>
+      </c>
+      <c r="D42">
+        <v>92485</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>276319</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>848846</v>
+      </c>
+      <c r="D43">
+        <v>448421</v>
+      </c>
+      <c r="E43">
+        <v>73894</v>
+      </c>
+      <c r="F43">
+        <v>1371161</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>2684592</v>
+      </c>
+      <c r="D44">
+        <v>1474016</v>
+      </c>
+      <c r="E44">
+        <v>294891</v>
+      </c>
+      <c r="F44">
+        <v>4453499</v>
+      </c>
+      <c r="G44">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>351034</v>
+      </c>
+      <c r="D45">
+        <v>183491</v>
+      </c>
+      <c r="E45">
+        <v>31445</v>
+      </c>
+      <c r="F45">
+        <v>565970</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>59432</v>
+      </c>
+      <c r="D46">
+        <v>123349</v>
+      </c>
+      <c r="E46">
+        <v>8723</v>
+      </c>
+      <c r="F46">
+        <v>191504</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1143747</v>
+      </c>
+      <c r="D47">
+        <v>845939</v>
+      </c>
+      <c r="E47">
+        <v>145645</v>
+      </c>
+      <c r="F47">
+        <v>2135331</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48">
+        <v>981853</v>
+      </c>
+      <c r="D48">
+        <v>1047747</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2029600</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>242823</v>
+      </c>
+      <c r="D49">
+        <v>182484</v>
+      </c>
+      <c r="E49">
+        <v>14081</v>
+      </c>
+      <c r="F49">
+        <v>439388</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1233336</v>
+      </c>
+      <c r="D50">
+        <v>1102581</v>
+      </c>
+      <c r="E50">
+        <v>19663</v>
+      </c>
+      <c r="F50">
+        <v>2355580</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>113038</v>
+      </c>
+      <c r="D51">
+        <v>37803</v>
+      </c>
+      <c r="E51">
+        <v>20312</v>
+      </c>
+      <c r="F51">
+        <v>171153</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>